--- a/NBase/_Md/_Index/_TGUniversitet/I_kurs/+Проектная_деятельность_1_pdf/1. Формирование образа для генерации идей/_Контрольные мероприятия/Практические_задания/задание_1/Матрица НТИ.xlsx
+++ b/NBase/_Md/_Index/_TGUniversitet/I_kurs/+Проектная_деятельность_1_pdf/1. Формирование образа для генерации идей/_Контрольные мероприятия/Практические_задания/задание_1/Матрица НТИ.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB5A39FE-B7D2-4362-859E-92C40B9654A5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D024A3-D670-47B9-8064-DB1A6190823E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3360" yWindow="645" windowWidth="17250" windowHeight="11100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -156,7 +156,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -179,11 +179,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="distributed" wrapText="1"/>
@@ -204,6 +241,15 @@
       <alignment vertical="distributed" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="distributed" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="distributed" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -546,8 +592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -806,24 +852,29 @@
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
     </row>
-    <row r="17" spans="1:9" ht="135" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+    <row r="17" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="B17" s="6"/>
+      <c r="C17" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="D17" s="9"/>
+      <c r="E17" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="F17" s="9"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="I17" s="9" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+      <c r="J17" s="10"/>
+    </row>
+    <row r="18" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>26</v>
       </c>
